--- a/biology/Zoologie/Bleu_verdâtre/Bleu_verdâtre.xlsx
+++ b/biology/Zoologie/Bleu_verdâtre/Bleu_verdâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu_verd%C3%A2tre</t>
+          <t>Bleu_verdâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Icaricia saepiolus
 Le Bleu verdâtre (Icaricia saepiolus) est une espèce nord-américaine de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu_verd%C3%A2tre</t>
+          <t>Bleu_verdâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,87 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Icaricia saepiolus a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1861, sous le nom initial de Lycaena saepiolus[1].
-Elle a souvent été placée dans des genres différents en fonction des sources, notamment dans les genres Plebejus et Aricia. Son placement actuel dans le genre Icaricia a été confirmé par de récentes études de phylogénétique moléculaire[2]. 
-Synonymes
-Lycaena saepiolus Boisduval, 1852 — protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Icaricia saepiolus a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1861, sous le nom initial de Lycaena saepiolus.
+Elle a souvent été placée dans des genres différents en fonction des sources, notamment dans les genres Plebejus et Aricia. Son placement actuel dans le genre Icaricia a été confirmé par de récentes études de phylogénétique moléculaire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bleu_verdâtre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lycaena saepiolus Boisduval, 1852 — protonyme
 Plebejus saepiolus (Boisduval, 1852)
-Aricia saepiolus (Boisduval, 1852)
-Sous-espèces
-Selon Funet[1] : 
+Aricia saepiolus (Boisduval, 1852)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bleu_verdâtre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Funet : 
 Icaricia saepiolus saepiolus (Boisduval, 1852) — Californie.
 Icaricia saepiolus aehaja (Behr, 1867) — Californie.
 Icaricia saepiolus rufescens (Boisduval, 1869) — Californie.
@@ -537,76 +620,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bleu_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : le Bleu verdâtre[3].
-en anglais : Greenish Blue[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bleu_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago du Bleu verdâtre est un petit papillon, d'une envergure de 21 mm à 32 mm. Il présente un dimorphisme sexuel : le dessus du mâle est bleu métallique pâle à fine bordure noire, celui de la femelle est marron à reflets bleu, avec aux ailes postérieures une ligne marginale de taches coiffées d'orange[3],[4].
-Le revers est gris, plus foncé chez la femelle.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bleu_verd%C3%A2tre</t>
+          <t>Bleu_verdâtre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,16 +641,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phénologie
-Le Bleu verdâtre vole en une génération, de mai à juillet.
-Plantes-hôtes
-Ses plantes-hôtes sont des trèfles : Trifolium longipes, Trifolium monathum et Trifolium wormskioldii[1].
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>en français : le Bleu verdâtre.
+en anglais : Greenish Blue.</t>
         </is>
       </c>
     </row>
@@ -640,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bleu_verd%C3%A2tre</t>
+          <t>Bleu_verdâtre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,13 +674,123 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago du Bleu verdâtre est un petit papillon, d'une envergure de 21 mm à 32 mm. Il présente un dimorphisme sexuel : le dessus du mâle est bleu métallique pâle à fine bordure noire, celui de la femelle est marron à reflets bleu, avec aux ailes postérieures une ligne marginale de taches coiffées d'orange,.
+Le revers est gris, plus foncé chez la femelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bleu_verdâtre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bleu verdâtre vole en une génération, de mai à juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bleu_verdâtre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont des trèfles : Trifolium longipes, Trifolium monathum et Trifolium wormskioldii.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bleu_verdâtre</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_verd%C3%A2tre</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bleu verdâtre est présent en Amérique du Nord : en Alaska, dans une grande partie du Canada (atteignant à l'est la Nouvelle-Écosse), dans tout l'Ouest des États-Unis, notamment les Montagnes Rocheuses et la Californie, dans la région des Grands Lacs et en Nouvelle-Angleterre[1],[4],[3].
-Il réside dans les prés humides et les tourbières[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bleu verdâtre est présent en Amérique du Nord : en Alaska, dans une grande partie du Canada (atteignant à l'est la Nouvelle-Écosse), dans tout l'Ouest des États-Unis, notamment les Montagnes Rocheuses et la Californie, dans la région des Grands Lacs et en Nouvelle-Angleterre.
+Il réside dans les prés humides et les tourbières.
 </t>
         </is>
       </c>
